--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
   <si>
     <t>英文单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3386,6 +3386,14 @@
   </si>
   <si>
     <t>虚伪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>censure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严厉批评</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3711,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="C418" sqref="C418"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A423" sqref="A423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7093,6 +7101,14 @@
         <v>841</v>
       </c>
     </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>842</v>
+      </c>
+      <c r="B422" t="s">
+        <v>843</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/单词表.xlsx
+++ b/单词表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="1108">
   <si>
     <t>英文单词</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3337,10 +3337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保证,誓言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>judiciary</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3394,6 +3390,1066 @@
   </si>
   <si>
     <t>严厉批评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mourn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哀悼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oyxgen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>氧气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scandal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alcohol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酒精,乙醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>territorial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领土的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repercussion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反响,恶果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blatant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名目张胆的,公然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parachute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降落伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在…过程中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tariff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关税,价位表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>surveillance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>council</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bully</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓,胁迫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undeterred</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顽强的,不屈不挠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sober</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷静的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigotry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏执的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masquerade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掩饰，伪装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tentative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比,对照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>debut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次亮相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛烈抨击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橡胶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操纵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无记名选举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thwart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻挠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>足够,足以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sexist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别歧视者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽回资金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑架,诱拐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研讨会,培训会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>widow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寡妇,遗孀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subpoena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传票,传票传唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>revision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>companion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴侣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订,复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corpus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>academic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学术的;高校教师,高校科研人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真正的,真实的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彻底的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paraphrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释义;意译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undergraduate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postgraduate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discursive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离题的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>essay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估 ，评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creteria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coherence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连贯性,条理性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cohesion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内聚力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lexical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词汇量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monologue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>booklet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小册子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pronunciation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sugarcoat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美化,粉饰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从句,条款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带来,招致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做戏,装模作样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监管;拘留;抚养权,监护权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horiffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐怖的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duffel bag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行李袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉讼,归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harassment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骚扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>athlete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动员,体育家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情绪,观点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速扫过,略读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaffirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重申</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trumpet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣传,鼓吹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rural</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poverty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贫穷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>milder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻微的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warrant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许可证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形容词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enormous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞大的,巨大的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prosperous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁荣的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjourn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休会;休庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preconceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preconceived</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先入为主的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demolish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除,毁坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stronghold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有广泛支持的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controversy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>争论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>innate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天生的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>constitutional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宪法的,本质的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mortgage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵押贷款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypocrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪君子;伪善者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fintech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借贷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grieve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悲伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反驳,抵制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聚会地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aeronautical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空学的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawsuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诉讼,起诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invasion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>侵略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实质性的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械的,机器的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰出的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flavour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creepy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令人毛骨悚然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>envy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫉妒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重罪犯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星,气象学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群聚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>殖民地,聚居地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corridor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走廊,通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryptic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审判;试验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扰乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>awkward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨拙的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>synchrony</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interpersonal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人际关系的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimacy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密;性交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>onus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crusader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动参与者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保证,誓言,承诺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bombshell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>absurd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒诞的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blunder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愚蠢的错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适当性;合格性;参赛资格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rebound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irrelevent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无关紧要的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scalability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可扩展性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeoff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅近;非法跟踪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3719,10 +4775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B422"/>
+  <dimension ref="A1:B554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="H545" sqref="H545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7050,63 +8106,1119 @@
         <v>828</v>
       </c>
       <c r="B415" t="s">
-        <v>829</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
+        <v>829</v>
+      </c>
+      <c r="B416" t="s">
         <v>830</v>
-      </c>
-      <c r="B416" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
+        <v>831</v>
+      </c>
+      <c r="B417" t="s">
         <v>832</v>
-      </c>
-      <c r="B417" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
+        <v>833</v>
+      </c>
+      <c r="B418" t="s">
         <v>834</v>
-      </c>
-      <c r="B418" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
+        <v>835</v>
+      </c>
+      <c r="B419" t="s">
         <v>836</v>
-      </c>
-      <c r="B419" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
+        <v>837</v>
+      </c>
+      <c r="B420" t="s">
         <v>838</v>
-      </c>
-      <c r="B420" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
+        <v>839</v>
+      </c>
+      <c r="B421" t="s">
         <v>840</v>
-      </c>
-      <c r="B421" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
+        <v>841</v>
+      </c>
+      <c r="B422" t="s">
         <v>842</v>
       </c>
-      <c r="B422" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
         <v>843</v>
+      </c>
+      <c r="B423" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>845</v>
+      </c>
+      <c r="B424" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>847</v>
+      </c>
+      <c r="B425" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>849</v>
+      </c>
+      <c r="B426" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>851</v>
+      </c>
+      <c r="B427" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>853</v>
+      </c>
+      <c r="B428" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>855</v>
+      </c>
+      <c r="B429" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>857</v>
+      </c>
+      <c r="B430" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>859</v>
+      </c>
+      <c r="B431" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>861</v>
+      </c>
+      <c r="B432" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>863</v>
+      </c>
+      <c r="B433" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>865</v>
+      </c>
+      <c r="B434" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>867</v>
+      </c>
+      <c r="B435" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>869</v>
+      </c>
+      <c r="B436" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>871</v>
+      </c>
+      <c r="B437" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>873</v>
+      </c>
+      <c r="B438" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>875</v>
+      </c>
+      <c r="B439" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>877</v>
+      </c>
+      <c r="B440" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>879</v>
+      </c>
+      <c r="B441" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>881</v>
+      </c>
+      <c r="B442" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>883</v>
+      </c>
+      <c r="B443" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>885</v>
+      </c>
+      <c r="B444" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>887</v>
+      </c>
+      <c r="B445" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>889</v>
+      </c>
+      <c r="B446" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>891</v>
+      </c>
+      <c r="B447" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>893</v>
+      </c>
+      <c r="B448" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>895</v>
+      </c>
+      <c r="B449" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>897</v>
+      </c>
+      <c r="B450" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>899</v>
+      </c>
+      <c r="B451" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>901</v>
+      </c>
+      <c r="B452" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>903</v>
+      </c>
+      <c r="B453" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>905</v>
+      </c>
+      <c r="B454" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>907</v>
+      </c>
+      <c r="B455" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>909</v>
+      </c>
+      <c r="B456" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>910</v>
+      </c>
+      <c r="B457" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>913</v>
+      </c>
+      <c r="B458" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>915</v>
+      </c>
+      <c r="B459" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>917</v>
+      </c>
+      <c r="B460" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>919</v>
+      </c>
+      <c r="B461" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>921</v>
+      </c>
+      <c r="B462" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>923</v>
+      </c>
+      <c r="B463" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>925</v>
+      </c>
+      <c r="B464" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>927</v>
+      </c>
+      <c r="B465" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>929</v>
+      </c>
+      <c r="B466" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>931</v>
+      </c>
+      <c r="B467" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>933</v>
+      </c>
+      <c r="B468" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>935</v>
+      </c>
+      <c r="B469" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>937</v>
+      </c>
+      <c r="B470" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>939</v>
+      </c>
+      <c r="B471" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>941</v>
+      </c>
+      <c r="B472" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>943</v>
+      </c>
+      <c r="B473" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>945</v>
+      </c>
+      <c r="B474" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>947</v>
+      </c>
+      <c r="B475" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>949</v>
+      </c>
+      <c r="B476" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>951</v>
+      </c>
+      <c r="B477" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>953</v>
+      </c>
+      <c r="B478" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>955</v>
+      </c>
+      <c r="B479" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>957</v>
+      </c>
+      <c r="B480" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>959</v>
+      </c>
+      <c r="B481" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>961</v>
+      </c>
+      <c r="B482" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>963</v>
+      </c>
+      <c r="B483" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>965</v>
+      </c>
+      <c r="B484" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>967</v>
+      </c>
+      <c r="B485" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>969</v>
+      </c>
+      <c r="B486" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>971</v>
+      </c>
+      <c r="B487" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>973</v>
+      </c>
+      <c r="B488" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>975</v>
+      </c>
+      <c r="B489" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>979</v>
+      </c>
+      <c r="B491" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>981</v>
+      </c>
+      <c r="B492" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>983</v>
+      </c>
+      <c r="B493" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>985</v>
+      </c>
+      <c r="B494" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>987</v>
+      </c>
+      <c r="B495" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>989</v>
+      </c>
+      <c r="B496" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>991</v>
+      </c>
+      <c r="B497" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>993</v>
+      </c>
+      <c r="B498" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>995</v>
+      </c>
+      <c r="B499" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>997</v>
+      </c>
+      <c r="B500" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>999</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1107</v>
       </c>
     </row>
   </sheetData>
